--- a/demo.mercurytours/Other Project Files/Automation work Status.xlsx
+++ b/demo.mercurytours/Other Project Files/Automation work Status.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="11310" windowHeight="4380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Test Case id</t>
   </si>
   <si>
-    <t>Status(Y/N)</t>
+    <t>Completed/InProgress</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -78,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,23 +387,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/demo.mercurytours/Other Project Files/Automation work Status.xlsx
+++ b/demo.mercurytours/Other Project Files/Automation work Status.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="11310" windowHeight="4380"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test Case id</t>
   </si>
   <si>
-    <t>Completed/InProgress</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Status(Y/N)</t>
   </si>
 </sst>
 </file>
@@ -82,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,27 +382,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
